--- a/docs/dicionario de dados bd2.xlsx
+++ b/docs/dicionario de dados bd2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bfont\Documents\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8DBF87-DB61-4832-AE7B-42FB7B17DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6F82C-6CD8-40D7-ABF7-DEC67E0996D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="147">
   <si>
     <t>Tabela</t>
   </si>
@@ -438,6 +438,45 @@
   </si>
   <si>
     <t>idx_saidas_pecas_estoque_peca_id</t>
+  </si>
+  <si>
+    <t>estoque_pecas_id</t>
+  </si>
+  <si>
+    <t>ApoliceLog</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>1000-01-01 a 9999-12-31</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>deleted_date</t>
+  </si>
+  <si>
+    <t>deleted_by</t>
+  </si>
+  <si>
+    <t>Tabela responsável por armazenar os dados deletados.</t>
+  </si>
+  <si>
+    <t>Código de identificação.</t>
+  </si>
+  <si>
+    <t>Número de identificação.</t>
+  </si>
+  <si>
+    <t>Premio recomendado.</t>
+  </si>
+  <si>
+    <t>Data que foi deletada.</t>
+  </si>
+  <si>
+    <t>Quem deletou.</t>
   </si>
 </sst>
 </file>
@@ -948,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2644,7 +2683,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
@@ -2928,8 +2967,313 @@
         <v>63</v>
       </c>
     </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="134">
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A116:B116"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="A105:B105"/>
